--- a/Data/Excel/Creature.xlsx
+++ b/Data/Excel/Creature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13800" windowHeight="9515"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Creature" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-攻击速度</t>
+攻击速度
+每秒攻击次数</t>
         </r>
       </text>
     </comment>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>id</t>
   </si>
@@ -119,6 +120,9 @@
   </si>
   <si>
     <t>attackRange</t>
+  </si>
+  <si>
+    <t>speed</t>
   </si>
   <si>
     <t>description</t>
@@ -171,10 +175,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -186,32 +190,94 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,98 +298,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,49 +342,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,133 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,6 +533,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,6 +575,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -554,6 +597,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,56 +628,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,133 +653,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1130,23 +1134,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="12.6296296296296" customWidth="1"/>
-    <col min="6" max="6" width="14.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="12.6333333333333" customWidth="1"/>
+    <col min="6" max="6" width="14.1083333333333" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="12.6296296296296" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="8" max="9" width="12.6333333333333" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,66 +1190,72 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1253,26 +1263,29 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1"/>
+      <c r="I3" s="1">
+        <v>60</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>200</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -1283,31 +1296,34 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1"/>
+      <c r="I4" s="1">
+        <v>60</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>50001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1">
         <v>500</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -1315,14 +1331,17 @@
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1"/>
+      <c r="I5" s="1">
+        <v>60</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1335,8 +1354,9 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1349,8 +1369,9 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1363,8 +1384,9 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1377,8 +1399,9 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1391,8 +1414,9 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1405,6 +1429,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1423,7 +1448,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1440,7 +1465,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/Creature.xlsx
+++ b/Data/Excel/Creature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Creature" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>id</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>attackRange</t>
+  </si>
+  <si>
+    <t>attackId</t>
   </si>
   <si>
     <t>speed</t>
@@ -175,10 +178,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -189,6 +192,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -198,7 +202,105 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,122 +314,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,6 +345,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -354,175 +513,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,6 +536,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,6 +576,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,50 +636,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -641,10 +644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,133 +656,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -843,6 +846,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1127,30 +1135,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I3" sqref="I3:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="12.6333333333333" customWidth="1"/>
-    <col min="6" max="6" width="14.1083333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="14.1111111111111" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="9" width="12.6333333333333" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="8" max="10" width="12.6296296296296" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,69 +1200,75 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1264,21 +1277,24 @@
         <v>1</v>
       </c>
       <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
         <v>60</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
@@ -1297,27 +1313,30 @@
         <v>1</v>
       </c>
       <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
         <v>60</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>50001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1332,16 +1351,19 @@
         <v>1</v>
       </c>
       <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
         <v>60</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1355,8 +1377,9 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1370,8 +1393,9 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1385,8 +1409,9 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1400,8 +1425,9 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1415,8 +1441,9 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1430,6 +1457,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1448,7 +1476,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1465,7 +1493,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/Creature.xlsx
+++ b/Data/Excel/Creature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView windowWidth="17460" windowHeight="6555"/>
   </bookViews>
   <sheets>
     <sheet name="Creature" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pixar</author>
+    <author>liyingqi</author>
   </authors>
   <commentList>
     <comment ref="E1" authorId="0">
@@ -91,12 +92,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="L1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>liyingqi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1-近战
+2-远程</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>id</t>
   </si>
@@ -129,6 +153,18 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>attackType</t>
+  </si>
+  <si>
+    <t>bulletId</t>
+  </si>
+  <si>
+    <t>bulletType</t>
+  </si>
+  <si>
+    <t>bulletSpeed</t>
   </si>
   <si>
     <t>skill1</t>
@@ -192,6 +228,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,7 +281,76 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,124 +365,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -345,19 +381,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,13 +507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,37 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,91 +537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,13 +575,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,30 +601,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,6 +623,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -622,17 +658,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,10 +680,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,133 +692,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,29 +1171,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I5"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="12.6296296296296" customWidth="1"/>
-    <col min="6" max="6" width="14.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="12.6333333333333" customWidth="1"/>
+    <col min="6" max="6" width="14.1083333333333" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="10" width="12.6296296296296" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="8" max="10" width="12.6333333333333" customWidth="1"/>
+    <col min="11" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1203,63 +1240,87 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
@@ -1283,18 +1344,24 @@
         <v>60</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
@@ -1319,21 +1386,27 @@
         <v>60</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>50001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>50</v>
@@ -1357,13 +1430,19 @@
         <v>60</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:18">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1378,8 +1457,12 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:18">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1394,8 +1477,12 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:18">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1410,8 +1497,12 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:18">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1426,8 +1517,12 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:18">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1442,8 +1537,12 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:18">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1458,6 +1557,10 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1476,7 +1579,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1493,7 +1596,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/Creature.xlsx
+++ b/Data/Excel/Creature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17460" windowHeight="6555"/>
+    <workbookView windowWidth="28695" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Creature" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>id</t>
   </si>
@@ -156,15 +156,6 @@
   </si>
   <si>
     <t>attackType</t>
-  </si>
-  <si>
-    <t>bulletId</t>
-  </si>
-  <si>
-    <t>bulletType</t>
-  </si>
-  <si>
-    <t>bulletSpeed</t>
   </si>
   <si>
     <t>skill1</t>
@@ -214,10 +205,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -229,6 +220,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -242,15 +263,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,6 +310,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -271,104 +349,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -381,19 +372,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,19 +438,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,18 +480,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -453,12 +492,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -471,13 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,49 +516,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,12 +553,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,17 +566,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,31 +590,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,6 +643,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -680,10 +671,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,133 +683,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,10 +1169,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1191,10 +1182,10 @@
     <col min="6" max="6" width="14.1083333333333" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="10" width="12.6333333333333" customWidth="1"/>
-    <col min="11" max="15" width="12" customWidth="1"/>
+    <col min="11" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1243,84 +1234,66 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
@@ -1344,7 +1317,7 @@
         <v>60</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -1352,16 +1325,13 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
@@ -1386,7 +1356,7 @@
         <v>60</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -1394,19 +1364,16 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>50001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>50</v>
@@ -1430,7 +1397,7 @@
         <v>60</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -1438,11 +1405,8 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1458,11 +1422,8 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1478,11 +1439,8 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1498,11 +1456,8 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1518,11 +1473,8 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1538,11 +1490,8 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1558,9 +1507,6 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Excel/Creature.xlsx
+++ b/Data/Excel/Creature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="6420"/>
+    <workbookView windowWidth="16860" windowHeight="2850"/>
   </bookViews>
   <sheets>
     <sheet name="Creature" sheetId="1" r:id="rId1"/>
@@ -207,8 +207,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -221,6 +221,81 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,6 +309,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -242,122 +355,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,187 +372,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,15 +563,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,6 +577,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,23 +623,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,15 +646,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -663,6 +654,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -671,10 +671,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -683,133 +683,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1296,13 +1296,13 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
